--- a/biology/Médecine/Andreas_Elias_Büchner/Andreas_Elias_Büchner.xlsx
+++ b/biology/Médecine/Andreas_Elias_Büchner/Andreas_Elias_Büchner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andreas_Elias_B%C3%BCchner</t>
+          <t>Andreas_Elias_Büchner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Elias Büchner est un médecin allemand né le 9 avril 1701 à Erfurt et mort le 29 juillet 1769 (à 68 ans) à Halle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andreas_Elias_B%C3%BCchner</t>
+          <t>Andreas_Elias_Büchner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de médecine aux universités d'Erfurt, de Halle et de Leipzig et obtient son doctorat en 1722. En 1724, il devient professeur à l'université d'Erfurt et obtient une maîtrise d'arts. Membre de l'Académie des Curieux de la nature, il est nommé en 1735 premier médecin de l'empereur. Il succède en 1736 à Johann Jakob Baier comme président de la Leopoldina puis, en 1744, à Friedrich Hoffmann comme professeur à Halle.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andreas_Elias_B%C3%BCchner</t>
+          <t>Andreas_Elias_Büchner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On lui doit une Histoire de l'Académie des Curieux de la nature (1755), ainsi qu'un grand nombre d'ouvrages de physiologie, sur la pathologie, la thérapie et la pharmacologie, comme :
 Dissertatio Inavgvralis Physico-Medica De Aqvis Medicatis Praesertim De Fonte Medicato Clivensi, 1752 ;
